--- a/AdminUsers.xlsx
+++ b/AdminUsers.xlsx
@@ -22,10 +22,10 @@
     <t>Username</t>
   </si>
   <si>
-    <t>iuliia.khikmatova</t>
+    <t>13theBest</t>
   </si>
   <si>
-    <t>13theBest</t>
+    <t>luliia.khikmatova</t>
   </si>
 </sst>
 </file>
@@ -368,7 +368,7 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -382,7 +382,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -390,7 +390,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
